--- a/3 course/lab12/lab12data.xlsx
+++ b/3 course/lab12/lab12data.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kekoveca/Documents/MIPT/physics/3 course/lab12/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kekoveca\Documents\Physics_labs\3 course\lab12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B44D3A-0C90-E34D-BD92-7D2FA6600201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE1FE77-B197-4AA5-BEE0-411A1BD777A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5C3D6B20-E811-9845-BD42-A1A96D596F0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5C3D6B20-E811-9845-BD42-A1A96D596F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -412,20 +402,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CCF556-502E-104C-9B96-707DAA42A696}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -433,7 +423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -441,7 +431,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -449,97 +439,90 @@
         <v>896</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f>A3+10</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A15" si="0">A4+10</f>
-        <v>30</v>
+        <f t="shared" ref="A5:A12" si="0">A4+10</f>
+        <v>40</v>
       </c>
       <c r="B5" s="1">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B12" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="B13" s="1">
         <v>330</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>